--- a/com.yrtech.SurveyAPI/Excel/Subject.xlsx
+++ b/com.yrtech.SurveyAPI/Excel/Subject.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="List_Model">Sheet1!$C$3:$C$7</definedName>
     <definedName name="List_Type">Sheet1!$B$3:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -241,8 +241,24 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>审核代码（</t>
+    <t>题目类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>审核类型代码（</t>
     </r>
     <r>
       <rPr>
@@ -263,22 +279,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -747,10 +747,10 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>32</v>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -863,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1033,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1057,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
